--- a/Gantt Master Barber.xlsx
+++ b/Gantt Master Barber.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B222221F-7EBE-4760-9EAB-A4D54D841C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A86C70-E99D-4D9F-96EC-F6824EED7B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Proyecto Master Barber" sheetId="11" r:id="rId1"/>
@@ -1161,23 +1161,23 @@
     <xf numFmtId="168" fontId="22" fillId="13" borderId="2" xfId="30" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1790,7 +1790,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1841,107 +1841,107 @@
       <c r="B3" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="66">
+      <c r="D3" s="66"/>
+      <c r="E3" s="64">
         <f>DATE(2024,2,25)</f>
         <v>45347</v>
       </c>
-      <c r="F3" s="66"/>
+      <c r="F3" s="64"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="62"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="63">
+      <c r="I4" s="61">
         <f>I5</f>
         <v>45348</v>
       </c>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="63">
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="61">
         <f>P5</f>
         <v>45355</v>
       </c>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="63">
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="61">
         <f>W5</f>
         <v>45362</v>
       </c>
-      <c r="X4" s="64"/>
-      <c r="Y4" s="64"/>
-      <c r="Z4" s="64"/>
-      <c r="AA4" s="64"/>
-      <c r="AB4" s="64"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="63">
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="61">
         <f>AD5</f>
         <v>45369</v>
       </c>
-      <c r="AE4" s="64"/>
-      <c r="AF4" s="64"/>
-      <c r="AG4" s="64"/>
-      <c r="AH4" s="64"/>
-      <c r="AI4" s="64"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="63">
+      <c r="AE4" s="62"/>
+      <c r="AF4" s="62"/>
+      <c r="AG4" s="62"/>
+      <c r="AH4" s="62"/>
+      <c r="AI4" s="62"/>
+      <c r="AJ4" s="63"/>
+      <c r="AK4" s="61">
         <f>AK5</f>
         <v>45376</v>
       </c>
-      <c r="AL4" s="64"/>
-      <c r="AM4" s="64"/>
-      <c r="AN4" s="64"/>
-      <c r="AO4" s="64"/>
-      <c r="AP4" s="64"/>
-      <c r="AQ4" s="65"/>
-      <c r="AR4" s="63">
+      <c r="AL4" s="62"/>
+      <c r="AM4" s="62"/>
+      <c r="AN4" s="62"/>
+      <c r="AO4" s="62"/>
+      <c r="AP4" s="62"/>
+      <c r="AQ4" s="63"/>
+      <c r="AR4" s="61">
         <f>AR5</f>
         <v>45383</v>
       </c>
-      <c r="AS4" s="64"/>
-      <c r="AT4" s="64"/>
-      <c r="AU4" s="64"/>
-      <c r="AV4" s="64"/>
-      <c r="AW4" s="64"/>
-      <c r="AX4" s="65"/>
-      <c r="AY4" s="63">
+      <c r="AS4" s="62"/>
+      <c r="AT4" s="62"/>
+      <c r="AU4" s="62"/>
+      <c r="AV4" s="62"/>
+      <c r="AW4" s="62"/>
+      <c r="AX4" s="63"/>
+      <c r="AY4" s="61">
         <f>AY5</f>
         <v>45390</v>
       </c>
-      <c r="AZ4" s="64"/>
-      <c r="BA4" s="64"/>
-      <c r="BB4" s="64"/>
-      <c r="BC4" s="64"/>
-      <c r="BD4" s="64"/>
-      <c r="BE4" s="65"/>
-      <c r="BF4" s="63">
+      <c r="AZ4" s="62"/>
+      <c r="BA4" s="62"/>
+      <c r="BB4" s="62"/>
+      <c r="BC4" s="62"/>
+      <c r="BD4" s="62"/>
+      <c r="BE4" s="63"/>
+      <c r="BF4" s="61">
         <f>BF5</f>
         <v>45397</v>
       </c>
-      <c r="BG4" s="64"/>
-      <c r="BH4" s="64"/>
-      <c r="BI4" s="64"/>
-      <c r="BJ4" s="64"/>
-      <c r="BK4" s="64"/>
-      <c r="BL4" s="65"/>
+      <c r="BG4" s="62"/>
+      <c r="BH4" s="62"/>
+      <c r="BI4" s="62"/>
+      <c r="BJ4" s="62"/>
+      <c r="BK4" s="62"/>
+      <c r="BL4" s="63"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
@@ -3285,7 +3285,7 @@
         <v>55</v>
       </c>
       <c r="D18" s="55">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E18" s="56">
         <v>45399</v>
@@ -3817,17 +3817,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D24">
     <cfRule type="dataBar" priority="14">
@@ -3999,35 +3999,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4315,29 +4286,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4357,4 +4335,26 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Gantt Master Barber.xlsx
+++ b/Gantt Master Barber.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A86C70-E99D-4D9F-96EC-F6824EED7B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46657421-0B81-463D-B6BB-18E4525ECFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1161,6 +1161,12 @@
     <xf numFmtId="168" fontId="22" fillId="13" borderId="2" xfId="30" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="171" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1172,12 +1178,6 @@
     </xf>
     <xf numFmtId="170" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1789,7 +1789,7 @@
   <dimension ref="A1:BL27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -1841,107 +1841,107 @@
       <c r="B3" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="64">
+      <c r="D3" s="62"/>
+      <c r="E3" s="66">
         <f>DATE(2024,2,25)</f>
         <v>45347</v>
       </c>
-      <c r="F3" s="64"/>
+      <c r="F3" s="66"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="66"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="61">
+      <c r="I4" s="63">
         <f>I5</f>
         <v>45348</v>
       </c>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="61">
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="63">
         <f>P5</f>
         <v>45355</v>
       </c>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="61">
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="63">
         <f>W5</f>
         <v>45362</v>
       </c>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="61">
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="64"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="63">
         <f>AD5</f>
         <v>45369</v>
       </c>
-      <c r="AE4" s="62"/>
-      <c r="AF4" s="62"/>
-      <c r="AG4" s="62"/>
-      <c r="AH4" s="62"/>
-      <c r="AI4" s="62"/>
-      <c r="AJ4" s="63"/>
-      <c r="AK4" s="61">
+      <c r="AE4" s="64"/>
+      <c r="AF4" s="64"/>
+      <c r="AG4" s="64"/>
+      <c r="AH4" s="64"/>
+      <c r="AI4" s="64"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="63">
         <f>AK5</f>
         <v>45376</v>
       </c>
-      <c r="AL4" s="62"/>
-      <c r="AM4" s="62"/>
-      <c r="AN4" s="62"/>
-      <c r="AO4" s="62"/>
-      <c r="AP4" s="62"/>
-      <c r="AQ4" s="63"/>
-      <c r="AR4" s="61">
+      <c r="AL4" s="64"/>
+      <c r="AM4" s="64"/>
+      <c r="AN4" s="64"/>
+      <c r="AO4" s="64"/>
+      <c r="AP4" s="64"/>
+      <c r="AQ4" s="65"/>
+      <c r="AR4" s="63">
         <f>AR5</f>
         <v>45383</v>
       </c>
-      <c r="AS4" s="62"/>
-      <c r="AT4" s="62"/>
-      <c r="AU4" s="62"/>
-      <c r="AV4" s="62"/>
-      <c r="AW4" s="62"/>
-      <c r="AX4" s="63"/>
-      <c r="AY4" s="61">
+      <c r="AS4" s="64"/>
+      <c r="AT4" s="64"/>
+      <c r="AU4" s="64"/>
+      <c r="AV4" s="64"/>
+      <c r="AW4" s="64"/>
+      <c r="AX4" s="65"/>
+      <c r="AY4" s="63">
         <f>AY5</f>
         <v>45390</v>
       </c>
-      <c r="AZ4" s="62"/>
-      <c r="BA4" s="62"/>
-      <c r="BB4" s="62"/>
-      <c r="BC4" s="62"/>
-      <c r="BD4" s="62"/>
-      <c r="BE4" s="63"/>
-      <c r="BF4" s="61">
+      <c r="AZ4" s="64"/>
+      <c r="BA4" s="64"/>
+      <c r="BB4" s="64"/>
+      <c r="BC4" s="64"/>
+      <c r="BD4" s="64"/>
+      <c r="BE4" s="65"/>
+      <c r="BF4" s="63">
         <f>BF5</f>
         <v>45397</v>
       </c>
-      <c r="BG4" s="62"/>
-      <c r="BH4" s="62"/>
-      <c r="BI4" s="62"/>
-      <c r="BJ4" s="62"/>
-      <c r="BK4" s="62"/>
-      <c r="BL4" s="63"/>
+      <c r="BG4" s="64"/>
+      <c r="BH4" s="64"/>
+      <c r="BI4" s="64"/>
+      <c r="BJ4" s="64"/>
+      <c r="BK4" s="64"/>
+      <c r="BL4" s="65"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
@@ -3817,17 +3817,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D24">
     <cfRule type="dataBar" priority="14">
@@ -3999,6 +3999,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4286,36 +4315,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4335,26 +4357,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Gantt Master Barber.xlsx
+++ b/Gantt Master Barber.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46657421-0B81-463D-B6BB-18E4525ECFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBA94AA-02EF-4B55-837C-FE6ECC4C47CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t>Cree una programación para un proyecto en esta hoja de cálculo.
 Escriba el título de este proyecto en la celda B1. 
@@ -1161,23 +1161,23 @@
     <xf numFmtId="168" fontId="22" fillId="13" borderId="2" xfId="30" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1789,8 +1789,8 @@
   <dimension ref="A1:BL27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1819,7 +1819,15 @@
       <c r="E1" s="4"/>
       <c r="F1" s="22"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="43" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1830,9 +1838,7 @@
       <c r="B2" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="44" t="s">
-        <v>23</v>
-      </c>
+      <c r="I2" s="44"/>
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
@@ -1841,107 +1847,107 @@
       <c r="B3" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="66">
+      <c r="D3" s="66"/>
+      <c r="E3" s="64">
         <f>DATE(2024,2,25)</f>
         <v>45347</v>
       </c>
-      <c r="F3" s="66"/>
+      <c r="F3" s="64"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="62"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="63">
+      <c r="I4" s="61">
         <f>I5</f>
         <v>45348</v>
       </c>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="63">
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="61">
         <f>P5</f>
         <v>45355</v>
       </c>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="63">
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="61">
         <f>W5</f>
         <v>45362</v>
       </c>
-      <c r="X4" s="64"/>
-      <c r="Y4" s="64"/>
-      <c r="Z4" s="64"/>
-      <c r="AA4" s="64"/>
-      <c r="AB4" s="64"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="63">
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="61">
         <f>AD5</f>
         <v>45369</v>
       </c>
-      <c r="AE4" s="64"/>
-      <c r="AF4" s="64"/>
-      <c r="AG4" s="64"/>
-      <c r="AH4" s="64"/>
-      <c r="AI4" s="64"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="63">
+      <c r="AE4" s="62"/>
+      <c r="AF4" s="62"/>
+      <c r="AG4" s="62"/>
+      <c r="AH4" s="62"/>
+      <c r="AI4" s="62"/>
+      <c r="AJ4" s="63"/>
+      <c r="AK4" s="61">
         <f>AK5</f>
         <v>45376</v>
       </c>
-      <c r="AL4" s="64"/>
-      <c r="AM4" s="64"/>
-      <c r="AN4" s="64"/>
-      <c r="AO4" s="64"/>
-      <c r="AP4" s="64"/>
-      <c r="AQ4" s="65"/>
-      <c r="AR4" s="63">
+      <c r="AL4" s="62"/>
+      <c r="AM4" s="62"/>
+      <c r="AN4" s="62"/>
+      <c r="AO4" s="62"/>
+      <c r="AP4" s="62"/>
+      <c r="AQ4" s="63"/>
+      <c r="AR4" s="61">
         <f>AR5</f>
         <v>45383</v>
       </c>
-      <c r="AS4" s="64"/>
-      <c r="AT4" s="64"/>
-      <c r="AU4" s="64"/>
-      <c r="AV4" s="64"/>
-      <c r="AW4" s="64"/>
-      <c r="AX4" s="65"/>
-      <c r="AY4" s="63">
+      <c r="AS4" s="62"/>
+      <c r="AT4" s="62"/>
+      <c r="AU4" s="62"/>
+      <c r="AV4" s="62"/>
+      <c r="AW4" s="62"/>
+      <c r="AX4" s="63"/>
+      <c r="AY4" s="61">
         <f>AY5</f>
         <v>45390</v>
       </c>
-      <c r="AZ4" s="64"/>
-      <c r="BA4" s="64"/>
-      <c r="BB4" s="64"/>
-      <c r="BC4" s="64"/>
-      <c r="BD4" s="64"/>
-      <c r="BE4" s="65"/>
-      <c r="BF4" s="63">
+      <c r="AZ4" s="62"/>
+      <c r="BA4" s="62"/>
+      <c r="BB4" s="62"/>
+      <c r="BC4" s="62"/>
+      <c r="BD4" s="62"/>
+      <c r="BE4" s="63"/>
+      <c r="BF4" s="61">
         <f>BF5</f>
         <v>45397</v>
       </c>
-      <c r="BG4" s="64"/>
-      <c r="BH4" s="64"/>
-      <c r="BI4" s="64"/>
-      <c r="BJ4" s="64"/>
-      <c r="BK4" s="64"/>
-      <c r="BL4" s="65"/>
+      <c r="BG4" s="62"/>
+      <c r="BH4" s="62"/>
+      <c r="BI4" s="62"/>
+      <c r="BJ4" s="62"/>
+      <c r="BK4" s="62"/>
+      <c r="BL4" s="63"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
@@ -3817,17 +3823,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D24">
     <cfRule type="dataBar" priority="14">
@@ -3861,13 +3867,9 @@
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" r:id="rId3"/>
+  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -3999,35 +4001,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4315,29 +4288,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4357,4 +4337,26 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Gantt Master Barber.xlsx
+++ b/Gantt Master Barber.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBA94AA-02EF-4B55-837C-FE6ECC4C47CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA98D4A-C7CB-4981-B22D-05699E647FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Proyecto Master Barber" sheetId="11" r:id="rId1"/>
-    <sheet name="Acerca de" sheetId="12" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="hoy" localSheetId="0">TODAY()</definedName>
@@ -20,17 +19,28 @@
     <definedName name="task_start" localSheetId="0">'Proyecto Master Barber'!$E1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Proyecto Master Barber'!$4:$6</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>Cree una programación para un proyecto en esta hoja de cálculo.
 Escriba el título de este proyecto en la celda B1. 
@@ -127,53 +137,6 @@
   </si>
   <si>
     <t>GRÁFICO GANTT SIMPLE de Vertex42.com</t>
-  </si>
-  <si>
-    <t>https://www.vertex42.com/ExcelTemplates/simple-gantt-chart.html</t>
-  </si>
-  <si>
-    <t>Información sobre esta plantilla</t>
-  </si>
-  <si>
-    <t>Esta plantilla proporciona una forma sencilla de crear un diagrama de Gantt para ayudarle a visualizar su proyecto y realizar un seguimiento de este. Simplemente escriba sus tareas y fechas de inicio y finalización, no necesita fórmulas. Las barras del gráfico de Gantt representan la duración de la tarea y se muestran con formato condicional. Para insertar nuevas tareas, inserte filas nuevas.</t>
-  </si>
-  <si>
-    <t>Guía para lectores de pantalla</t>
-  </si>
-  <si>
-    <t>Hay 2 hojas de cálculo en este libro. 
-ParteDeHoras
-Información
-Las instrucciones de las hojas de cálculo se encuentran en la columna A de cada hoja, a partir de la celda A1. Están escritas con texto oculto. Cada paso le guiará a través de la información de esa fila. Los pasos posteriores continúan en la celda A2, A3, y así sucesivamente, a menos que se indique de forma explícita. Por ejemplo, el texto de una instrucción podría ser “Vaya a la celda A6” para continuar con el siguiente paso. 
-Este texto oculto no se imprimirá.
-Para quitar las instrucciones de la hoja de cálculo, es suficiente con eliminar la columna A.</t>
-  </si>
-  <si>
-    <t>Ayuda adicional</t>
-  </si>
-  <si>
-    <t>Haga clic en el vínculo siguiente para visitar vertex42.com y obtener más información sobre cómo usar esta plantilla, como la forma de calcular los días laborales, crear dependencias de tareas, cambiar los colores de las barras, agregar una barra de desplazamiento para que sea más fácil cambiar la semana que se muestra, ampliar el intervalo de fechas que se muestran en el gráfico, etcétera.</t>
-  </si>
-  <si>
-    <t>Cómo usar el gráfico de Gantt simple</t>
-  </si>
-  <si>
-    <t>Más plantillas de administración de proyectos</t>
-  </si>
-  <si>
-    <t>Visite Vertex42.com para descargar otras plantillas de administración de proyectos, como distintas programaciones de proyectos, diagramas de Gantt, listas de tareas, etcétera.</t>
-  </si>
-  <si>
-    <t>Plantillas de administración de proyectos</t>
-  </si>
-  <si>
-    <t>Información sobre Vertex42</t>
-  </si>
-  <si>
-    <t>Vertex42.com ofrece más de 300 plantillas de hojas de cálculo de diseño profesional para empresas, hogares y centros educativos (la mayoría se puede descargar de forma gratuita). Su colección incluye una amplia variedad de calendarios, planificadores y programaciones, así como hojas de cálculo para las finanzas personales: para la administración de presupuestos, la reducción de deudas y la amortización de préstamos.</t>
-  </si>
-  <si>
-    <t>Las empresas encontrarán plantillas de facturas, partes de horas, informes financieros, planificación de proyectos y plantillas para hacer un seguimiento del inventario. Los profesores y los estudiantes encontrarán recursos como programaciones de clases, libros de calificaciones y hojas de asistencia. Organice su vida familiar con planificadores de comidas, listas y registros de ejercicio. Cada plantilla ha sido cuidadosamente diseñada, perfeccionada y mejorada a lo largo del tiempo gracias a los comentarios de miles de usuarios.</t>
   </si>
   <si>
     <t>Master Barber</t>
@@ -250,7 +213,7 @@
     <numFmt numFmtId="170" formatCode="ddd\,\ yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="171" formatCode="d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,49 +327,6 @@
       <color theme="1" tint="0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1D2129"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
@@ -931,7 +851,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="167" fontId="9" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -953,49 +873,49 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1057,39 +977,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1109,11 +1001,8 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="2" xfId="10">
@@ -1134,7 +1023,7 @@
     <xf numFmtId="169" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="9" xfId="38" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" xfId="38" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="2" xfId="31" applyBorder="1" applyAlignment="1">
@@ -1149,17 +1038,23 @@
     <xf numFmtId="168" fontId="9" fillId="14" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="2" xfId="30" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" xfId="30" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="2" xfId="30" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" xfId="30" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="13" borderId="2" xfId="30" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="16" fillId="13" borderId="2" xfId="30" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="22" fillId="13" borderId="2" xfId="30" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="16" fillId="13" borderId="2" xfId="30" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="171" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1172,12 +1067,6 @@
     </xf>
     <xf numFmtId="170" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1464,62 +1353,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>523875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1" descr="Logotipo de Vertex42">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8638EF3-2DAE-40BC-A45A-2B8C536FAB0D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="190500" y="95250"/>
-          <a:ext cx="1905000" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1788,14 +1621,14 @@
   </sheetPr>
   <dimension ref="A1:BL27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="66" zoomScaleNormal="66" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="33" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="23" customWidth="1"/>
     <col min="2" max="2" width="48.7109375" customWidth="1"/>
     <col min="3" max="3" width="33.5703125" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -1808,384 +1641,384 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>37</v>
+      <c r="B1" s="27" t="s">
+        <v>23</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="4"/>
       <c r="F1" s="22"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43" t="s">
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="44"/>
+      <c r="B2" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="65" t="s">
+      <c r="B3" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="64">
+      <c r="D3" s="51"/>
+      <c r="E3" s="55">
         <f>DATE(2024,2,25)</f>
         <v>45347</v>
       </c>
-      <c r="F3" s="64"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="66"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="61">
+      <c r="I4" s="52">
         <f>I5</f>
         <v>45348</v>
       </c>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="61">
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="52">
         <f>P5</f>
         <v>45355</v>
       </c>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="61">
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="52">
         <f>W5</f>
         <v>45362</v>
       </c>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="61">
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="52">
         <f>AD5</f>
         <v>45369</v>
       </c>
-      <c r="AE4" s="62"/>
-      <c r="AF4" s="62"/>
-      <c r="AG4" s="62"/>
-      <c r="AH4" s="62"/>
-      <c r="AI4" s="62"/>
-      <c r="AJ4" s="63"/>
-      <c r="AK4" s="61">
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="52">
         <f>AK5</f>
         <v>45376</v>
       </c>
-      <c r="AL4" s="62"/>
-      <c r="AM4" s="62"/>
-      <c r="AN4" s="62"/>
-      <c r="AO4" s="62"/>
-      <c r="AP4" s="62"/>
-      <c r="AQ4" s="63"/>
-      <c r="AR4" s="61">
+      <c r="AL4" s="53"/>
+      <c r="AM4" s="53"/>
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="53"/>
+      <c r="AP4" s="53"/>
+      <c r="AQ4" s="54"/>
+      <c r="AR4" s="52">
         <f>AR5</f>
         <v>45383</v>
       </c>
-      <c r="AS4" s="62"/>
-      <c r="AT4" s="62"/>
-      <c r="AU4" s="62"/>
-      <c r="AV4" s="62"/>
-      <c r="AW4" s="62"/>
-      <c r="AX4" s="63"/>
-      <c r="AY4" s="61">
+      <c r="AS4" s="53"/>
+      <c r="AT4" s="53"/>
+      <c r="AU4" s="53"/>
+      <c r="AV4" s="53"/>
+      <c r="AW4" s="53"/>
+      <c r="AX4" s="54"/>
+      <c r="AY4" s="52">
         <f>AY5</f>
         <v>45390</v>
       </c>
-      <c r="AZ4" s="62"/>
-      <c r="BA4" s="62"/>
-      <c r="BB4" s="62"/>
-      <c r="BC4" s="62"/>
-      <c r="BD4" s="62"/>
-      <c r="BE4" s="63"/>
-      <c r="BF4" s="61">
+      <c r="AZ4" s="53"/>
+      <c r="BA4" s="53"/>
+      <c r="BB4" s="53"/>
+      <c r="BC4" s="53"/>
+      <c r="BD4" s="53"/>
+      <c r="BE4" s="54"/>
+      <c r="BF4" s="52">
         <f>BF5</f>
         <v>45397</v>
       </c>
-      <c r="BG4" s="62"/>
-      <c r="BH4" s="62"/>
-      <c r="BI4" s="62"/>
-      <c r="BJ4" s="62"/>
-      <c r="BK4" s="62"/>
-      <c r="BL4" s="63"/>
+      <c r="BG4" s="53"/>
+      <c r="BH4" s="53"/>
+      <c r="BI4" s="53"/>
+      <c r="BJ4" s="53"/>
+      <c r="BK4" s="53"/>
+      <c r="BL4" s="54"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="I5" s="49">
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="I5" s="38">
         <f>Inicio_del_proyecto-WEEKDAY(Inicio_del_proyecto,1)+2+7*(Semana_para_mostrar-1)</f>
         <v>45348</v>
       </c>
-      <c r="J5" s="50">
+      <c r="J5" s="39">
         <f>I5+1</f>
         <v>45349</v>
       </c>
-      <c r="K5" s="50">
+      <c r="K5" s="39">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
         <v>45350</v>
       </c>
-      <c r="L5" s="50">
+      <c r="L5" s="39">
         <f t="shared" si="0"/>
         <v>45351</v>
       </c>
-      <c r="M5" s="50">
+      <c r="M5" s="39">
         <f t="shared" si="0"/>
         <v>45352</v>
       </c>
-      <c r="N5" s="50">
+      <c r="N5" s="39">
         <f t="shared" si="0"/>
         <v>45353</v>
       </c>
-      <c r="O5" s="51">
+      <c r="O5" s="40">
         <f t="shared" si="0"/>
         <v>45354</v>
       </c>
-      <c r="P5" s="49">
+      <c r="P5" s="38">
         <f>O5+1</f>
         <v>45355</v>
       </c>
-      <c r="Q5" s="50">
+      <c r="Q5" s="39">
         <f>P5+1</f>
         <v>45356</v>
       </c>
-      <c r="R5" s="50">
+      <c r="R5" s="39">
         <f t="shared" si="0"/>
         <v>45357</v>
       </c>
-      <c r="S5" s="50">
+      <c r="S5" s="39">
         <f t="shared" si="0"/>
         <v>45358</v>
       </c>
-      <c r="T5" s="50">
+      <c r="T5" s="39">
         <f t="shared" si="0"/>
         <v>45359</v>
       </c>
-      <c r="U5" s="50">
+      <c r="U5" s="39">
         <f t="shared" si="0"/>
         <v>45360</v>
       </c>
-      <c r="V5" s="51">
+      <c r="V5" s="40">
         <f t="shared" si="0"/>
         <v>45361</v>
       </c>
-      <c r="W5" s="49">
+      <c r="W5" s="38">
         <f>V5+1</f>
         <v>45362</v>
       </c>
-      <c r="X5" s="50">
+      <c r="X5" s="39">
         <f>W5+1</f>
         <v>45363</v>
       </c>
-      <c r="Y5" s="50">
+      <c r="Y5" s="39">
         <f t="shared" si="0"/>
         <v>45364</v>
       </c>
-      <c r="Z5" s="50">
+      <c r="Z5" s="39">
         <f t="shared" si="0"/>
         <v>45365</v>
       </c>
-      <c r="AA5" s="50">
+      <c r="AA5" s="39">
         <f t="shared" si="0"/>
         <v>45366</v>
       </c>
-      <c r="AB5" s="50">
+      <c r="AB5" s="39">
         <f t="shared" si="0"/>
         <v>45367</v>
       </c>
-      <c r="AC5" s="51">
+      <c r="AC5" s="40">
         <f t="shared" si="0"/>
         <v>45368</v>
       </c>
-      <c r="AD5" s="49">
+      <c r="AD5" s="38">
         <f>AC5+1</f>
         <v>45369</v>
       </c>
-      <c r="AE5" s="50">
+      <c r="AE5" s="39">
         <f>AD5+1</f>
         <v>45370</v>
       </c>
-      <c r="AF5" s="50">
+      <c r="AF5" s="39">
         <f t="shared" si="0"/>
         <v>45371</v>
       </c>
-      <c r="AG5" s="50">
+      <c r="AG5" s="39">
         <f t="shared" si="0"/>
         <v>45372</v>
       </c>
-      <c r="AH5" s="50">
+      <c r="AH5" s="39">
         <f t="shared" si="0"/>
         <v>45373</v>
       </c>
-      <c r="AI5" s="50">
+      <c r="AI5" s="39">
         <f t="shared" si="0"/>
         <v>45374</v>
       </c>
-      <c r="AJ5" s="51">
+      <c r="AJ5" s="40">
         <f t="shared" si="0"/>
         <v>45375</v>
       </c>
-      <c r="AK5" s="49">
+      <c r="AK5" s="38">
         <f>AJ5+1</f>
         <v>45376</v>
       </c>
-      <c r="AL5" s="50">
+      <c r="AL5" s="39">
         <f>AK5+1</f>
         <v>45377</v>
       </c>
-      <c r="AM5" s="50">
+      <c r="AM5" s="39">
         <f t="shared" si="0"/>
         <v>45378</v>
       </c>
-      <c r="AN5" s="50">
+      <c r="AN5" s="39">
         <f t="shared" si="0"/>
         <v>45379</v>
       </c>
-      <c r="AO5" s="50">
+      <c r="AO5" s="39">
         <f t="shared" si="0"/>
         <v>45380</v>
       </c>
-      <c r="AP5" s="50">
+      <c r="AP5" s="39">
         <f t="shared" si="0"/>
         <v>45381</v>
       </c>
-      <c r="AQ5" s="51">
+      <c r="AQ5" s="40">
         <f t="shared" si="0"/>
         <v>45382</v>
       </c>
-      <c r="AR5" s="49">
+      <c r="AR5" s="38">
         <f>AQ5+1</f>
         <v>45383</v>
       </c>
-      <c r="AS5" s="50">
+      <c r="AS5" s="39">
         <f>AR5+1</f>
         <v>45384</v>
       </c>
-      <c r="AT5" s="50">
+      <c r="AT5" s="39">
         <f t="shared" si="0"/>
         <v>45385</v>
       </c>
-      <c r="AU5" s="50">
+      <c r="AU5" s="39">
         <f t="shared" si="0"/>
         <v>45386</v>
       </c>
-      <c r="AV5" s="50">
+      <c r="AV5" s="39">
         <f t="shared" si="0"/>
         <v>45387</v>
       </c>
-      <c r="AW5" s="50">
+      <c r="AW5" s="39">
         <f t="shared" si="0"/>
         <v>45388</v>
       </c>
-      <c r="AX5" s="51">
+      <c r="AX5" s="40">
         <f t="shared" si="0"/>
         <v>45389</v>
       </c>
-      <c r="AY5" s="49">
+      <c r="AY5" s="38">
         <f>AX5+1</f>
         <v>45390</v>
       </c>
-      <c r="AZ5" s="50">
+      <c r="AZ5" s="39">
         <f>AY5+1</f>
         <v>45391</v>
       </c>
-      <c r="BA5" s="50">
+      <c r="BA5" s="39">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
         <v>45392</v>
       </c>
-      <c r="BB5" s="50">
+      <c r="BB5" s="39">
         <f t="shared" si="1"/>
         <v>45393</v>
       </c>
-      <c r="BC5" s="50">
+      <c r="BC5" s="39">
         <f t="shared" si="1"/>
         <v>45394</v>
       </c>
-      <c r="BD5" s="50">
+      <c r="BD5" s="39">
         <f t="shared" si="1"/>
         <v>45395</v>
       </c>
-      <c r="BE5" s="51">
+      <c r="BE5" s="40">
         <f t="shared" si="1"/>
         <v>45396</v>
       </c>
-      <c r="BF5" s="49">
+      <c r="BF5" s="38">
         <f>BE5+1</f>
         <v>45397</v>
       </c>
-      <c r="BG5" s="50">
+      <c r="BG5" s="39">
         <f>BF5+1</f>
         <v>45398</v>
       </c>
-      <c r="BH5" s="50">
+      <c r="BH5" s="39">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
         <v>45399</v>
       </c>
-      <c r="BI5" s="50">
+      <c r="BI5" s="39">
         <f t="shared" si="2"/>
         <v>45400</v>
       </c>
-      <c r="BJ5" s="50">
+      <c r="BJ5" s="39">
         <f t="shared" si="2"/>
         <v>45401</v>
       </c>
-      <c r="BK5" s="50">
+      <c r="BK5" s="39">
         <f t="shared" si="2"/>
         <v>45402</v>
       </c>
-      <c r="BL5" s="51">
+      <c r="BL5" s="40">
         <f t="shared" si="2"/>
         <v>45403</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="24" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -2433,10 +2266,10 @@
       </c>
     </row>
     <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="36"/>
+      <c r="C7" s="26"/>
       <c r="E7"/>
       <c r="H7" t="str">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -2500,16 +2333,16 @@
       <c r="BL7" s="19"/>
     </row>
     <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
+      <c r="B8" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="str">
         <f t="shared" ref="H8:H24" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -2573,22 +2406,22 @@
       <c r="BL8" s="19"/>
     </row>
     <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="55">
+      <c r="B9" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="44">
         <v>1</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="45">
         <v>45347</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="45">
         <v>45350</v>
       </c>
       <c r="G9" s="14"/>
@@ -2598,7 +2431,7 @@
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
-      <c r="K9" s="52"/>
+      <c r="K9" s="41"/>
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
@@ -2654,23 +2487,23 @@
       <c r="BL9" s="19"/>
     </row>
     <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="55">
+      <c r="B10" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="44">
         <v>1</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="45">
         <f>F9</f>
         <v>45350</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="45">
         <v>45379</v>
       </c>
       <c r="G10" s="14"/>
@@ -2736,20 +2569,20 @@
       <c r="BL10" s="19"/>
     </row>
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
-      <c r="B11" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="55">
+      <c r="A11" s="23"/>
+      <c r="B11" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="44">
         <v>1</v>
       </c>
-      <c r="E11" s="56">
+      <c r="E11" s="45">
         <v>45352</v>
       </c>
-      <c r="F11" s="56">
+      <c r="F11" s="45">
         <v>45379</v>
       </c>
       <c r="G11" s="14"/>
@@ -2815,20 +2648,20 @@
       <c r="BL11" s="19"/>
     </row>
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="55">
+      <c r="D12" s="44">
         <v>1</v>
       </c>
-      <c r="E12" s="56">
+      <c r="E12" s="45">
         <v>45330</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12" s="45">
         <v>45379</v>
       </c>
       <c r="G12" s="14"/>
@@ -2894,20 +2727,20 @@
       <c r="BL12" s="19"/>
     </row>
     <row r="13" spans="1:64" s="3" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
-      <c r="B13" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="55">
+      <c r="A13" s="23"/>
+      <c r="B13" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="44">
         <v>1</v>
       </c>
-      <c r="E13" s="56">
+      <c r="E13" s="45">
         <v>45352</v>
       </c>
-      <c r="F13" s="56">
+      <c r="F13" s="45">
         <v>45379</v>
       </c>
       <c r="G13" s="14"/>
@@ -2973,20 +2806,20 @@
       <c r="BL13" s="19"/>
     </row>
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
-      <c r="B14" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="55">
+      <c r="A14" s="24"/>
+      <c r="B14" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="44">
         <v>1</v>
       </c>
-      <c r="E14" s="56">
+      <c r="E14" s="45">
         <v>45360</v>
       </c>
-      <c r="F14" s="56">
+      <c r="F14" s="45">
         <v>45379</v>
       </c>
       <c r="G14" s="14"/>
@@ -3052,20 +2885,20 @@
       <c r="BL14" s="19"/>
     </row>
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
-      <c r="B15" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="55">
+      <c r="A15" s="23"/>
+      <c r="B15" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="44">
         <v>1</v>
       </c>
-      <c r="E15" s="56">
+      <c r="E15" s="45">
         <v>45359</v>
       </c>
-      <c r="F15" s="56">
+      <c r="F15" s="45">
         <v>45379</v>
       </c>
       <c r="G15" s="14"/>
@@ -3131,20 +2964,20 @@
       <c r="BL15" s="19"/>
     </row>
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
-      <c r="B16" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="55">
+      <c r="A16" s="23"/>
+      <c r="B16" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="44">
         <v>1</v>
       </c>
-      <c r="E16" s="56">
+      <c r="E16" s="45">
         <v>45362</v>
       </c>
-      <c r="F16" s="56">
+      <c r="F16" s="45">
         <v>45363</v>
       </c>
       <c r="G16" s="14"/>
@@ -3210,16 +3043,16 @@
       <c r="BL16" s="19"/>
     </row>
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
+      <c r="B17" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14" t="str">
         <f t="shared" si="6"/>
@@ -3283,20 +3116,20 @@
       <c r="BL17" s="19"/>
     </row>
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
-      <c r="B18" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="55">
-        <v>0.8</v>
-      </c>
-      <c r="E18" s="56">
+      <c r="A18" s="23"/>
+      <c r="B18" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="44">
+        <v>1</v>
+      </c>
+      <c r="E18" s="45">
         <v>45399</v>
       </c>
-      <c r="F18" s="56">
+      <c r="F18" s="45">
         <v>45404</v>
       </c>
       <c r="G18" s="14"/>
@@ -3362,20 +3195,20 @@
       <c r="BL18" s="19"/>
     </row>
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
-      <c r="B19" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="55">
+      <c r="A19" s="23"/>
+      <c r="B19" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="44">
         <v>1</v>
       </c>
-      <c r="E19" s="56">
+      <c r="E19" s="45">
         <v>45404</v>
       </c>
-      <c r="F19" s="56">
+      <c r="F19" s="45">
         <v>45405</v>
       </c>
       <c r="G19" s="14"/>
@@ -3441,20 +3274,20 @@
       <c r="BL19" s="19"/>
     </row>
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
-      <c r="B20" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="55">
+      <c r="A20" s="23"/>
+      <c r="B20" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="44">
         <v>1</v>
       </c>
-      <c r="E20" s="56">
+      <c r="E20" s="45">
         <v>45404</v>
       </c>
-      <c r="F20" s="56">
+      <c r="F20" s="45">
         <v>45405</v>
       </c>
       <c r="G20" s="14"/>
@@ -3520,20 +3353,20 @@
       <c r="BL20" s="19"/>
     </row>
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="33"/>
-      <c r="B21" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="55">
+      <c r="A21" s="23"/>
+      <c r="B21" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="44">
         <v>1</v>
       </c>
-      <c r="E21" s="56">
+      <c r="E21" s="45">
         <v>45404</v>
       </c>
-      <c r="F21" s="56">
+      <c r="F21" s="45">
         <v>45405</v>
       </c>
       <c r="G21" s="14"/>
@@ -3599,12 +3432,12 @@
       <c r="BL21" s="19"/>
     </row>
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="33"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14" t="str">
         <f t="shared" si="6"/>
@@ -3668,14 +3501,14 @@
       <c r="BL22" s="19"/>
     </row>
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="40"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="13"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14" t="str">
         <f t="shared" si="6"/>
@@ -3739,7 +3572,7 @@
       <c r="BL23" s="19"/>
     </row>
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="24" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="15" t="s">
@@ -3747,8 +3580,8 @@
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="48"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="37"/>
       <c r="G24" s="18"/>
       <c r="H24" s="18" t="str">
         <f t="shared" si="6"/>
@@ -3816,24 +3649,24 @@
     </row>
     <row r="26" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="11"/>
-      <c r="F26" s="35"/>
+      <c r="F26" s="25"/>
     </row>
     <row r="27" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D24">
     <cfRule type="dataBar" priority="14">
@@ -3869,7 +3702,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="45" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -3897,110 +3730,36 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B16"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="87.140625" style="23" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="24"/>
-    </row>
-    <row r="3" spans="1:2" s="29" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="30"/>
-    </row>
-    <row r="4" spans="1:2" s="26" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A4" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="23" customFormat="1" ht="228" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="26" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="23" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="26" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A11" s="27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="23" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="26" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="90" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A10" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="A2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4288,36 +4047,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4337,26 +4089,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Gantt Master Barber.xlsx
+++ b/Gantt Master Barber.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA98D4A-C7CB-4981-B22D-05699E647FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2486FBB-CF9B-4AD3-A12B-1DFB1EE63B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Proyecto Master Barber" sheetId="11" r:id="rId1"/>
@@ -24,23 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>Cree una programación para un proyecto en esta hoja de cálculo.
 Escriba el título de este proyecto en la celda B1. 
@@ -197,6 +186,18 @@
   </si>
   <si>
     <t xml:space="preserve">Cristian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagramas de procesos </t>
+  </si>
+  <si>
+    <t>Cuadro de comparaciones - cotizaciones</t>
+  </si>
+  <si>
+    <t>Modelo entidad relacion</t>
+  </si>
+  <si>
+    <t>Diccionario de datos</t>
   </si>
 </sst>
 </file>
@@ -1050,23 +1051,23 @@
     <xf numFmtId="168" fontId="16" fillId="13" borderId="2" xfId="30" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1619,11 +1620,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL27"/>
+  <dimension ref="A1:BL32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="66" zoomScaleNormal="66" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BO18" sqref="BO18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1680,107 +1681,107 @@
       <c r="B3" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="55">
+      <c r="D3" s="55"/>
+      <c r="E3" s="53">
         <f>DATE(2024,2,25)</f>
         <v>45347</v>
       </c>
-      <c r="F3" s="55"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="51"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="52">
+        <v>4</v>
+      </c>
+      <c r="I4" s="50">
         <f>I5</f>
-        <v>45348</v>
-      </c>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="52">
+        <v>45369</v>
+      </c>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="50">
         <f>P5</f>
-        <v>45355</v>
-      </c>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="52">
+        <v>45376</v>
+      </c>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="50">
         <f>W5</f>
-        <v>45362</v>
-      </c>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="53"/>
-      <c r="AA4" s="53"/>
-      <c r="AB4" s="53"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="52">
+        <v>45383</v>
+      </c>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="51"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="50">
         <f>AD5</f>
-        <v>45369</v>
-      </c>
-      <c r="AE4" s="53"/>
-      <c r="AF4" s="53"/>
-      <c r="AG4" s="53"/>
-      <c r="AH4" s="53"/>
-      <c r="AI4" s="53"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="52">
+        <v>45390</v>
+      </c>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="51"/>
+      <c r="AH4" s="51"/>
+      <c r="AI4" s="51"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="50">
         <f>AK5</f>
-        <v>45376</v>
-      </c>
-      <c r="AL4" s="53"/>
-      <c r="AM4" s="53"/>
-      <c r="AN4" s="53"/>
-      <c r="AO4" s="53"/>
-      <c r="AP4" s="53"/>
-      <c r="AQ4" s="54"/>
-      <c r="AR4" s="52">
+        <v>45397</v>
+      </c>
+      <c r="AL4" s="51"/>
+      <c r="AM4" s="51"/>
+      <c r="AN4" s="51"/>
+      <c r="AO4" s="51"/>
+      <c r="AP4" s="51"/>
+      <c r="AQ4" s="52"/>
+      <c r="AR4" s="50">
         <f>AR5</f>
-        <v>45383</v>
-      </c>
-      <c r="AS4" s="53"/>
-      <c r="AT4" s="53"/>
-      <c r="AU4" s="53"/>
-      <c r="AV4" s="53"/>
-      <c r="AW4" s="53"/>
-      <c r="AX4" s="54"/>
-      <c r="AY4" s="52">
+        <v>45404</v>
+      </c>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="51"/>
+      <c r="AV4" s="51"/>
+      <c r="AW4" s="51"/>
+      <c r="AX4" s="52"/>
+      <c r="AY4" s="50">
         <f>AY5</f>
-        <v>45390</v>
-      </c>
-      <c r="AZ4" s="53"/>
-      <c r="BA4" s="53"/>
-      <c r="BB4" s="53"/>
-      <c r="BC4" s="53"/>
-      <c r="BD4" s="53"/>
-      <c r="BE4" s="54"/>
-      <c r="BF4" s="52">
+        <v>45411</v>
+      </c>
+      <c r="AZ4" s="51"/>
+      <c r="BA4" s="51"/>
+      <c r="BB4" s="51"/>
+      <c r="BC4" s="51"/>
+      <c r="BD4" s="51"/>
+      <c r="BE4" s="52"/>
+      <c r="BF4" s="50">
         <f>BF5</f>
-        <v>45397</v>
-      </c>
-      <c r="BG4" s="53"/>
-      <c r="BH4" s="53"/>
-      <c r="BI4" s="53"/>
-      <c r="BJ4" s="53"/>
-      <c r="BK4" s="53"/>
-      <c r="BL4" s="54"/>
+        <v>45418</v>
+      </c>
+      <c r="BG4" s="51"/>
+      <c r="BH4" s="51"/>
+      <c r="BI4" s="51"/>
+      <c r="BJ4" s="51"/>
+      <c r="BK4" s="51"/>
+      <c r="BL4" s="52"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
@@ -1794,227 +1795,227 @@
       <c r="G5" s="32"/>
       <c r="I5" s="38">
         <f>Inicio_del_proyecto-WEEKDAY(Inicio_del_proyecto,1)+2+7*(Semana_para_mostrar-1)</f>
-        <v>45348</v>
+        <v>45369</v>
       </c>
       <c r="J5" s="39">
         <f>I5+1</f>
-        <v>45349</v>
+        <v>45370</v>
       </c>
       <c r="K5" s="39">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
-        <v>45350</v>
+        <v>45371</v>
       </c>
       <c r="L5" s="39">
         <f t="shared" si="0"/>
-        <v>45351</v>
+        <v>45372</v>
       </c>
       <c r="M5" s="39">
         <f t="shared" si="0"/>
-        <v>45352</v>
+        <v>45373</v>
       </c>
       <c r="N5" s="39">
         <f t="shared" si="0"/>
-        <v>45353</v>
+        <v>45374</v>
       </c>
       <c r="O5" s="40">
         <f t="shared" si="0"/>
-        <v>45354</v>
+        <v>45375</v>
       </c>
       <c r="P5" s="38">
         <f>O5+1</f>
-        <v>45355</v>
+        <v>45376</v>
       </c>
       <c r="Q5" s="39">
         <f>P5+1</f>
-        <v>45356</v>
+        <v>45377</v>
       </c>
       <c r="R5" s="39">
         <f t="shared" si="0"/>
-        <v>45357</v>
+        <v>45378</v>
       </c>
       <c r="S5" s="39">
         <f t="shared" si="0"/>
-        <v>45358</v>
+        <v>45379</v>
       </c>
       <c r="T5" s="39">
         <f t="shared" si="0"/>
-        <v>45359</v>
+        <v>45380</v>
       </c>
       <c r="U5" s="39">
         <f t="shared" si="0"/>
-        <v>45360</v>
+        <v>45381</v>
       </c>
       <c r="V5" s="40">
         <f t="shared" si="0"/>
-        <v>45361</v>
+        <v>45382</v>
       </c>
       <c r="W5" s="38">
         <f>V5+1</f>
-        <v>45362</v>
+        <v>45383</v>
       </c>
       <c r="X5" s="39">
         <f>W5+1</f>
-        <v>45363</v>
+        <v>45384</v>
       </c>
       <c r="Y5" s="39">
         <f t="shared" si="0"/>
-        <v>45364</v>
+        <v>45385</v>
       </c>
       <c r="Z5" s="39">
         <f t="shared" si="0"/>
-        <v>45365</v>
+        <v>45386</v>
       </c>
       <c r="AA5" s="39">
         <f t="shared" si="0"/>
-        <v>45366</v>
+        <v>45387</v>
       </c>
       <c r="AB5" s="39">
         <f t="shared" si="0"/>
-        <v>45367</v>
+        <v>45388</v>
       </c>
       <c r="AC5" s="40">
         <f t="shared" si="0"/>
-        <v>45368</v>
+        <v>45389</v>
       </c>
       <c r="AD5" s="38">
         <f>AC5+1</f>
-        <v>45369</v>
+        <v>45390</v>
       </c>
       <c r="AE5" s="39">
         <f>AD5+1</f>
-        <v>45370</v>
+        <v>45391</v>
       </c>
       <c r="AF5" s="39">
         <f t="shared" si="0"/>
-        <v>45371</v>
+        <v>45392</v>
       </c>
       <c r="AG5" s="39">
         <f t="shared" si="0"/>
-        <v>45372</v>
+        <v>45393</v>
       </c>
       <c r="AH5" s="39">
         <f t="shared" si="0"/>
-        <v>45373</v>
+        <v>45394</v>
       </c>
       <c r="AI5" s="39">
         <f t="shared" si="0"/>
-        <v>45374</v>
+        <v>45395</v>
       </c>
       <c r="AJ5" s="40">
         <f t="shared" si="0"/>
-        <v>45375</v>
+        <v>45396</v>
       </c>
       <c r="AK5" s="38">
         <f>AJ5+1</f>
-        <v>45376</v>
+        <v>45397</v>
       </c>
       <c r="AL5" s="39">
         <f>AK5+1</f>
-        <v>45377</v>
+        <v>45398</v>
       </c>
       <c r="AM5" s="39">
         <f t="shared" si="0"/>
-        <v>45378</v>
+        <v>45399</v>
       </c>
       <c r="AN5" s="39">
         <f t="shared" si="0"/>
-        <v>45379</v>
+        <v>45400</v>
       </c>
       <c r="AO5" s="39">
         <f t="shared" si="0"/>
-        <v>45380</v>
+        <v>45401</v>
       </c>
       <c r="AP5" s="39">
         <f t="shared" si="0"/>
-        <v>45381</v>
+        <v>45402</v>
       </c>
       <c r="AQ5" s="40">
         <f t="shared" si="0"/>
-        <v>45382</v>
+        <v>45403</v>
       </c>
       <c r="AR5" s="38">
         <f>AQ5+1</f>
-        <v>45383</v>
+        <v>45404</v>
       </c>
       <c r="AS5" s="39">
         <f>AR5+1</f>
-        <v>45384</v>
+        <v>45405</v>
       </c>
       <c r="AT5" s="39">
         <f t="shared" si="0"/>
-        <v>45385</v>
+        <v>45406</v>
       </c>
       <c r="AU5" s="39">
         <f t="shared" si="0"/>
-        <v>45386</v>
+        <v>45407</v>
       </c>
       <c r="AV5" s="39">
         <f t="shared" si="0"/>
-        <v>45387</v>
+        <v>45408</v>
       </c>
       <c r="AW5" s="39">
         <f t="shared" si="0"/>
-        <v>45388</v>
+        <v>45409</v>
       </c>
       <c r="AX5" s="40">
         <f t="shared" si="0"/>
-        <v>45389</v>
+        <v>45410</v>
       </c>
       <c r="AY5" s="38">
         <f>AX5+1</f>
-        <v>45390</v>
+        <v>45411</v>
       </c>
       <c r="AZ5" s="39">
         <f>AY5+1</f>
-        <v>45391</v>
+        <v>45412</v>
       </c>
       <c r="BA5" s="39">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
-        <v>45392</v>
+        <v>45413</v>
       </c>
       <c r="BB5" s="39">
         <f t="shared" si="1"/>
-        <v>45393</v>
+        <v>45414</v>
       </c>
       <c r="BC5" s="39">
         <f t="shared" si="1"/>
-        <v>45394</v>
+        <v>45415</v>
       </c>
       <c r="BD5" s="39">
         <f t="shared" si="1"/>
-        <v>45395</v>
+        <v>45416</v>
       </c>
       <c r="BE5" s="40">
         <f t="shared" si="1"/>
-        <v>45396</v>
+        <v>45417</v>
       </c>
       <c r="BF5" s="38">
         <f>BE5+1</f>
-        <v>45397</v>
+        <v>45418</v>
       </c>
       <c r="BG5" s="39">
         <f>BF5+1</f>
-        <v>45398</v>
+        <v>45419</v>
       </c>
       <c r="BH5" s="39">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
-        <v>45399</v>
+        <v>45420</v>
       </c>
       <c r="BI5" s="39">
         <f t="shared" si="2"/>
-        <v>45400</v>
+        <v>45421</v>
       </c>
       <c r="BJ5" s="39">
         <f t="shared" si="2"/>
-        <v>45401</v>
+        <v>45422</v>
       </c>
       <c r="BK5" s="39">
         <f t="shared" si="2"/>
-        <v>45402</v>
+        <v>45423</v>
       </c>
       <c r="BL5" s="40">
         <f t="shared" si="2"/>
-        <v>45403</v>
+        <v>45424</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2345,7 +2346,7 @@
       <c r="F8" s="49"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="str">
-        <f t="shared" ref="H8:H24" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H29" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="19"/>
@@ -3433,16 +3434,23 @@
     </row>
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="23"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
+      <c r="B22" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="44">
+        <v>1</v>
+      </c>
+      <c r="E22" s="45">
+        <v>45413</v>
+      </c>
+      <c r="F22" s="45">
+        <v>45415</v>
+      </c>
       <c r="G22" s="14"/>
-      <c r="H22" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="H22" s="14"/>
       <c r="I22" s="19"/>
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
@@ -3501,19 +3509,24 @@
       <c r="BL22" s="19"/>
     </row>
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="44">
+        <v>1</v>
+      </c>
+      <c r="E23" s="45">
+        <v>45413</v>
+      </c>
+      <c r="F23" s="45">
+        <v>45415</v>
+      </c>
       <c r="G23" s="14"/>
-      <c r="H23" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="H23" s="14"/>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
@@ -3572,103 +3585,461 @@
       <c r="BL23" s="19"/>
     </row>
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18" t="str">
+      <c r="A24" s="23"/>
+      <c r="B24" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="44">
+        <v>1</v>
+      </c>
+      <c r="E24" s="45">
+        <v>45417</v>
+      </c>
+      <c r="F24" s="45">
+        <v>45422</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="19"/>
+      <c r="AI24" s="19"/>
+      <c r="AJ24" s="19"/>
+      <c r="AK24" s="19"/>
+      <c r="AL24" s="19"/>
+      <c r="AM24" s="19"/>
+      <c r="AN24" s="19"/>
+      <c r="AO24" s="19"/>
+      <c r="AP24" s="19"/>
+      <c r="AQ24" s="19"/>
+      <c r="AR24" s="19"/>
+      <c r="AS24" s="19"/>
+      <c r="AT24" s="19"/>
+      <c r="AU24" s="19"/>
+      <c r="AV24" s="19"/>
+      <c r="AW24" s="19"/>
+      <c r="AX24" s="19"/>
+      <c r="AY24" s="19"/>
+      <c r="AZ24" s="19"/>
+      <c r="BA24" s="19"/>
+      <c r="BB24" s="19"/>
+      <c r="BC24" s="19"/>
+      <c r="BD24" s="19"/>
+      <c r="BE24" s="19"/>
+      <c r="BF24" s="19"/>
+      <c r="BG24" s="19"/>
+      <c r="BH24" s="19"/>
+      <c r="BI24" s="19"/>
+      <c r="BJ24" s="19"/>
+      <c r="BK24" s="19"/>
+      <c r="BL24" s="19"/>
+    </row>
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="23"/>
+      <c r="B25" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="44">
+        <v>1</v>
+      </c>
+      <c r="E25" s="45">
+        <v>45422</v>
+      </c>
+      <c r="F25" s="45">
+        <v>45423</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="19"/>
+      <c r="AD25" s="19"/>
+      <c r="AE25" s="19"/>
+      <c r="AF25" s="19"/>
+      <c r="AG25" s="19"/>
+      <c r="AH25" s="19"/>
+      <c r="AI25" s="19"/>
+      <c r="AJ25" s="19"/>
+      <c r="AK25" s="19"/>
+      <c r="AL25" s="19"/>
+      <c r="AM25" s="19"/>
+      <c r="AN25" s="19"/>
+      <c r="AO25" s="19"/>
+      <c r="AP25" s="19"/>
+      <c r="AQ25" s="19"/>
+      <c r="AR25" s="19"/>
+      <c r="AS25" s="19"/>
+      <c r="AT25" s="19"/>
+      <c r="AU25" s="19"/>
+      <c r="AV25" s="19"/>
+      <c r="AW25" s="19"/>
+      <c r="AX25" s="19"/>
+      <c r="AY25" s="19"/>
+      <c r="AZ25" s="19"/>
+      <c r="BA25" s="19"/>
+      <c r="BB25" s="19"/>
+      <c r="BC25" s="19"/>
+      <c r="BD25" s="19"/>
+      <c r="BE25" s="19"/>
+      <c r="BF25" s="19"/>
+      <c r="BG25" s="19"/>
+      <c r="BH25" s="19"/>
+      <c r="BI25" s="19"/>
+      <c r="BJ25" s="19"/>
+      <c r="BK25" s="19"/>
+      <c r="BL25" s="19"/>
+    </row>
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="23"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="19"/>
+      <c r="AJ26" s="19"/>
+      <c r="AK26" s="19"/>
+      <c r="AL26" s="19"/>
+      <c r="AM26" s="19"/>
+      <c r="AN26" s="19"/>
+      <c r="AO26" s="19"/>
+      <c r="AP26" s="19"/>
+      <c r="AQ26" s="19"/>
+      <c r="AR26" s="19"/>
+      <c r="AS26" s="19"/>
+      <c r="AT26" s="19"/>
+      <c r="AU26" s="19"/>
+      <c r="AV26" s="19"/>
+      <c r="AW26" s="19"/>
+      <c r="AX26" s="19"/>
+      <c r="AY26" s="19"/>
+      <c r="AZ26" s="19"/>
+      <c r="BA26" s="19"/>
+      <c r="BB26" s="19"/>
+      <c r="BC26" s="19"/>
+      <c r="BD26" s="19"/>
+      <c r="BE26" s="19"/>
+      <c r="BF26" s="19"/>
+      <c r="BG26" s="19"/>
+      <c r="BH26" s="19"/>
+      <c r="BI26" s="19"/>
+      <c r="BJ26" s="19"/>
+      <c r="BK26" s="19"/>
+      <c r="BL26" s="19"/>
+    </row>
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="23"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="21"/>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="21"/>
-      <c r="AE24" s="21"/>
-      <c r="AF24" s="21"/>
-      <c r="AG24" s="21"/>
-      <c r="AH24" s="21"/>
-      <c r="AI24" s="21"/>
-      <c r="AJ24" s="21"/>
-      <c r="AK24" s="21"/>
-      <c r="AL24" s="21"/>
-      <c r="AM24" s="21"/>
-      <c r="AN24" s="21"/>
-      <c r="AO24" s="21"/>
-      <c r="AP24" s="21"/>
-      <c r="AQ24" s="21"/>
-      <c r="AR24" s="21"/>
-      <c r="AS24" s="21"/>
-      <c r="AT24" s="21"/>
-      <c r="AU24" s="21"/>
-      <c r="AV24" s="21"/>
-      <c r="AW24" s="21"/>
-      <c r="AX24" s="21"/>
-      <c r="AY24" s="21"/>
-      <c r="AZ24" s="21"/>
-      <c r="BA24" s="21"/>
-      <c r="BB24" s="21"/>
-      <c r="BC24" s="21"/>
-      <c r="BD24" s="21"/>
-      <c r="BE24" s="21"/>
-      <c r="BF24" s="21"/>
-      <c r="BG24" s="21"/>
-      <c r="BH24" s="21"/>
-      <c r="BI24" s="21"/>
-      <c r="BJ24" s="21"/>
-      <c r="BK24" s="21"/>
-      <c r="BL24" s="21"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="19"/>
+      <c r="AG27" s="19"/>
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="19"/>
+      <c r="AJ27" s="19"/>
+      <c r="AK27" s="19"/>
+      <c r="AL27" s="19"/>
+      <c r="AM27" s="19"/>
+      <c r="AN27" s="19"/>
+      <c r="AO27" s="19"/>
+      <c r="AP27" s="19"/>
+      <c r="AQ27" s="19"/>
+      <c r="AR27" s="19"/>
+      <c r="AS27" s="19"/>
+      <c r="AT27" s="19"/>
+      <c r="AU27" s="19"/>
+      <c r="AV27" s="19"/>
+      <c r="AW27" s="19"/>
+      <c r="AX27" s="19"/>
+      <c r="AY27" s="19"/>
+      <c r="AZ27" s="19"/>
+      <c r="BA27" s="19"/>
+      <c r="BB27" s="19"/>
+      <c r="BC27" s="19"/>
+      <c r="BD27" s="19"/>
+      <c r="BE27" s="19"/>
+      <c r="BF27" s="19"/>
+      <c r="BG27" s="19"/>
+      <c r="BH27" s="19"/>
+      <c r="BI27" s="19"/>
+      <c r="BJ27" s="19"/>
+      <c r="BK27" s="19"/>
+      <c r="BL27" s="19"/>
     </row>
-    <row r="25" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G25" s="6"/>
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="19"/>
+      <c r="AJ28" s="19"/>
+      <c r="AK28" s="19"/>
+      <c r="AL28" s="19"/>
+      <c r="AM28" s="19"/>
+      <c r="AN28" s="19"/>
+      <c r="AO28" s="19"/>
+      <c r="AP28" s="19"/>
+      <c r="AQ28" s="19"/>
+      <c r="AR28" s="19"/>
+      <c r="AS28" s="19"/>
+      <c r="AT28" s="19"/>
+      <c r="AU28" s="19"/>
+      <c r="AV28" s="19"/>
+      <c r="AW28" s="19"/>
+      <c r="AX28" s="19"/>
+      <c r="AY28" s="19"/>
+      <c r="AZ28" s="19"/>
+      <c r="BA28" s="19"/>
+      <c r="BB28" s="19"/>
+      <c r="BC28" s="19"/>
+      <c r="BD28" s="19"/>
+      <c r="BE28" s="19"/>
+      <c r="BF28" s="19"/>
+      <c r="BG28" s="19"/>
+      <c r="BH28" s="19"/>
+      <c r="BI28" s="19"/>
+      <c r="BJ28" s="19"/>
+      <c r="BK28" s="19"/>
+      <c r="BL28" s="19"/>
     </row>
-    <row r="26" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="11"/>
-      <c r="F26" s="25"/>
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="21"/>
+      <c r="AC29" s="21"/>
+      <c r="AD29" s="21"/>
+      <c r="AE29" s="21"/>
+      <c r="AF29" s="21"/>
+      <c r="AG29" s="21"/>
+      <c r="AH29" s="21"/>
+      <c r="AI29" s="21"/>
+      <c r="AJ29" s="21"/>
+      <c r="AK29" s="21"/>
+      <c r="AL29" s="21"/>
+      <c r="AM29" s="21"/>
+      <c r="AN29" s="21"/>
+      <c r="AO29" s="21"/>
+      <c r="AP29" s="21"/>
+      <c r="AQ29" s="21"/>
+      <c r="AR29" s="21"/>
+      <c r="AS29" s="21"/>
+      <c r="AT29" s="21"/>
+      <c r="AU29" s="21"/>
+      <c r="AV29" s="21"/>
+      <c r="AW29" s="21"/>
+      <c r="AX29" s="21"/>
+      <c r="AY29" s="21"/>
+      <c r="AZ29" s="21"/>
+      <c r="BA29" s="21"/>
+      <c r="BB29" s="21"/>
+      <c r="BC29" s="21"/>
+      <c r="BD29" s="21"/>
+      <c r="BE29" s="21"/>
+      <c r="BF29" s="21"/>
+      <c r="BG29" s="21"/>
+      <c r="BH29" s="21"/>
+      <c r="BI29" s="21"/>
+      <c r="BJ29" s="21"/>
+      <c r="BK29" s="21"/>
+      <c r="BL29" s="21"/>
     </row>
-    <row r="27" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="12"/>
+    <row r="30" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="11"/>
+      <c r="F31" s="25"/>
+    </row>
+    <row r="32" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D24">
+  <conditionalFormatting sqref="D7:D29">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -3682,12 +4053,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL24">
+  <conditionalFormatting sqref="I5:BL29">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL24">
+  <conditionalFormatting sqref="I7:BL29">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -3722,7 +4093,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D24</xm:sqref>
+          <xm:sqref>D7:D29</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3751,15 +4122,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4047,6 +4409,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
   <ds:schemaRefs>
@@ -4062,14 +4433,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4089,4 +4452,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>